--- a/server/src/infra/ReadingCSV/Exams/InstructionsSheet.xlsx
+++ b/server/src/infra/ReadingCSV/Exams/InstructionsSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WeDescWorks\DrHatoAndVK\server\src\infra\ReadingCSV\Exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7719A47E-2CC2-4E5D-A72A-B5603D0A6FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40AE4EE-200F-4188-A7C1-19C99EA4043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2490" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1665" windowWidth="28110" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PeparingListForExams" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="457">
   <si>
     <t>nom_setor</t>
   </si>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G349" sqref="G349:G369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,7 +7075,9 @@
       <c r="F214" s="1">
         <v>0</v>
       </c>
-      <c r="G214" s="6"/>
+      <c r="G214" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H214" s="4"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7097,7 +7099,9 @@
       <c r="F215" s="1">
         <v>0</v>
       </c>
-      <c r="G215" s="6"/>
+      <c r="G215" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H215" s="4"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7119,7 +7123,9 @@
       <c r="F216" s="1">
         <v>23</v>
       </c>
-      <c r="G216" s="6"/>
+      <c r="G216" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H216" s="4"/>
     </row>
     <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7141,7 +7147,9 @@
       <c r="F217" s="1">
         <v>0</v>
       </c>
-      <c r="G217" s="6"/>
+      <c r="G217" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H217" s="4"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7307,7 +7315,9 @@
       <c r="F224" s="1">
         <v>121</v>
       </c>
-      <c r="G224" s="6"/>
+      <c r="G224" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H224" s="4"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7329,7 +7339,9 @@
       <c r="F225" s="1">
         <v>109</v>
       </c>
-      <c r="G225" s="6"/>
+      <c r="G225" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H225" s="4"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7351,7 +7363,9 @@
       <c r="F226" s="1">
         <v>109</v>
       </c>
-      <c r="G226" s="6"/>
+      <c r="G226" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H226" s="4"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7373,7 +7387,9 @@
       <c r="F227" s="1">
         <v>109</v>
       </c>
-      <c r="G227" s="6"/>
+      <c r="G227" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H227" s="4"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7395,7 +7411,9 @@
       <c r="F228" s="1">
         <v>109</v>
       </c>
-      <c r="G228" s="6"/>
+      <c r="G228" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H228" s="4"/>
     </row>
     <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7417,7 +7435,9 @@
       <c r="F229" s="1">
         <v>109</v>
       </c>
-      <c r="G229" s="6"/>
+      <c r="G229" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H229" s="4"/>
     </row>
     <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7439,7 +7459,9 @@
       <c r="F230" s="1">
         <v>109</v>
       </c>
-      <c r="G230" s="6"/>
+      <c r="G230" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H230" s="4"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7461,7 +7483,9 @@
       <c r="F231" s="1">
         <v>227</v>
       </c>
-      <c r="G231" s="6"/>
+      <c r="G231" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H231" s="4"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7483,7 +7507,9 @@
       <c r="F232" s="1">
         <v>109</v>
       </c>
-      <c r="G232" s="6"/>
+      <c r="G232" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H232" s="4"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7505,7 +7531,9 @@
       <c r="F233" s="1">
         <v>109</v>
       </c>
-      <c r="G233" s="6"/>
+      <c r="G233" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H233" s="4"/>
     </row>
     <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7527,7 +7555,9 @@
       <c r="F234" s="1">
         <v>109</v>
       </c>
-      <c r="G234" s="6"/>
+      <c r="G234" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7549,7 +7579,9 @@
       <c r="F235" s="1">
         <v>109</v>
       </c>
-      <c r="G235" s="6"/>
+      <c r="G235" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H235" s="4"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7571,7 +7603,9 @@
       <c r="F236" s="1">
         <v>95</v>
       </c>
-      <c r="G236" s="6"/>
+      <c r="G236" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H236" s="4"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7593,7 +7627,9 @@
       <c r="F237" s="1">
         <v>227</v>
       </c>
-      <c r="G237" s="6"/>
+      <c r="G237" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H237" s="4"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7615,7 +7651,9 @@
       <c r="F238" s="1">
         <v>227</v>
       </c>
-      <c r="G238" s="6"/>
+      <c r="G238" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H238" s="4"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7637,7 +7675,9 @@
       <c r="F239" s="1">
         <v>109</v>
       </c>
-      <c r="G239" s="6"/>
+      <c r="G239" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H239" s="4"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7659,7 +7699,9 @@
       <c r="F240" s="1">
         <v>109</v>
       </c>
-      <c r="G240" s="6"/>
+      <c r="G240" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H240" s="4"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7681,7 +7723,9 @@
       <c r="F241" s="1">
         <v>109</v>
       </c>
-      <c r="G241" s="6"/>
+      <c r="G241" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H241" s="4"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7703,7 +7747,9 @@
       <c r="F242" s="1">
         <v>109</v>
       </c>
-      <c r="G242" s="6"/>
+      <c r="G242" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H242" s="4"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7725,7 +7771,9 @@
       <c r="F243" s="1">
         <v>109</v>
       </c>
-      <c r="G243" s="6"/>
+      <c r="G243" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H243" s="4"/>
     </row>
     <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7747,7 +7795,9 @@
       <c r="F244" s="1">
         <v>289</v>
       </c>
-      <c r="G244" s="6"/>
+      <c r="G244" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H244" s="4"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -7769,7 +7819,9 @@
       <c r="F245" s="1">
         <v>109</v>
       </c>
-      <c r="G245" s="6"/>
+      <c r="G245" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H245" s="4"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -7791,7 +7843,9 @@
       <c r="F246" s="1">
         <v>109</v>
       </c>
-      <c r="G246" s="6"/>
+      <c r="G246" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H246" s="4"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -7813,7 +7867,9 @@
       <c r="F247" s="1">
         <v>109</v>
       </c>
-      <c r="G247" s="6"/>
+      <c r="G247" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H247" s="4"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7835,7 +7891,9 @@
       <c r="F248" s="1">
         <v>227</v>
       </c>
-      <c r="G248" s="6"/>
+      <c r="G248" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H248" s="4"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7857,7 +7915,9 @@
       <c r="F249" s="1">
         <v>109</v>
       </c>
-      <c r="G249" s="6"/>
+      <c r="G249" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H249" s="4"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7879,7 +7939,9 @@
       <c r="F250" s="1">
         <v>690</v>
       </c>
-      <c r="G250" s="6"/>
+      <c r="G250" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -7901,7 +7963,9 @@
       <c r="F251" s="1">
         <v>805</v>
       </c>
-      <c r="G251" s="6"/>
+      <c r="G251" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7923,7 +7987,9 @@
       <c r="F252" s="1">
         <v>575</v>
       </c>
-      <c r="G252" s="6"/>
+      <c r="G252" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H252" s="4"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7945,7 +8011,9 @@
       <c r="F253" s="1">
         <v>620</v>
       </c>
-      <c r="G253" s="6"/>
+      <c r="G253" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H253" s="4"/>
     </row>
     <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7967,7 +8035,9 @@
       <c r="F254" s="1">
         <v>897</v>
       </c>
-      <c r="G254" s="6"/>
+      <c r="G254" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H254" s="4"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -7989,7 +8059,9 @@
       <c r="F255" s="1">
         <v>713</v>
       </c>
-      <c r="G255" s="6"/>
+      <c r="G255" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H255" s="4"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8011,7 +8083,9 @@
       <c r="F256" s="1">
         <v>828</v>
       </c>
-      <c r="G256" s="6"/>
+      <c r="G256" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H256" s="4"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8033,7 +8107,9 @@
       <c r="F257" s="1">
         <v>109</v>
       </c>
-      <c r="G257" s="6"/>
+      <c r="G257" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H257" s="4"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8055,7 +8131,9 @@
       <c r="F258" s="1">
         <v>109</v>
       </c>
-      <c r="G258" s="6"/>
+      <c r="G258" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H258" s="4"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8077,7 +8155,9 @@
       <c r="F259" s="1">
         <v>109</v>
       </c>
-      <c r="G259" s="6"/>
+      <c r="G259" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H259" s="4"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8099,7 +8179,9 @@
       <c r="F260" s="1">
         <v>109</v>
       </c>
-      <c r="G260" s="6"/>
+      <c r="G260" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H260" s="4"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8121,7 +8203,9 @@
       <c r="F261" s="1">
         <v>109</v>
       </c>
-      <c r="G261" s="6"/>
+      <c r="G261" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H261" s="4"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -8143,7 +8227,9 @@
       <c r="F262" s="1">
         <v>109</v>
       </c>
-      <c r="G262" s="6"/>
+      <c r="G262" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H262" s="4"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -8165,7 +8251,9 @@
       <c r="F263" s="1">
         <v>109</v>
       </c>
-      <c r="G263" s="6"/>
+      <c r="G263" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H263" s="4"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8187,7 +8275,9 @@
       <c r="F264" s="1">
         <v>109</v>
       </c>
-      <c r="G264" s="6"/>
+      <c r="G264" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H264" s="4"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -8209,7 +8299,9 @@
       <c r="F265" s="1">
         <v>109</v>
       </c>
-      <c r="G265" s="6"/>
+      <c r="G265" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H265" s="4"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -8231,7 +8323,9 @@
       <c r="F266" s="1">
         <v>109</v>
       </c>
-      <c r="G266" s="6"/>
+      <c r="G266" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H266" s="4"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -8253,7 +8347,9 @@
       <c r="F267" s="1">
         <v>109</v>
       </c>
-      <c r="G267" s="6"/>
+      <c r="G267" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H267" s="4"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -8275,7 +8371,9 @@
       <c r="F268" s="1">
         <v>0</v>
       </c>
-      <c r="G268" s="6"/>
+      <c r="G268" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8297,7 +8395,9 @@
       <c r="F269" s="1">
         <v>0</v>
       </c>
-      <c r="G269" s="6"/>
+      <c r="G269" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8319,7 +8419,9 @@
       <c r="F270" s="1">
         <v>0</v>
       </c>
-      <c r="G270" s="6"/>
+      <c r="G270" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H270" s="4"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8341,7 +8443,9 @@
       <c r="F271" s="1">
         <v>0</v>
       </c>
-      <c r="G271" s="6"/>
+      <c r="G271" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H271" s="4"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -8363,7 +8467,9 @@
       <c r="F272" s="1">
         <v>0</v>
       </c>
-      <c r="G272" s="6"/>
+      <c r="G272" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H272" s="4"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -8385,7 +8491,9 @@
       <c r="F273" s="1">
         <v>0</v>
       </c>
-      <c r="G273" s="6"/>
+      <c r="G273" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H273" s="4"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -8407,7 +8515,9 @@
       <c r="F274" s="1">
         <v>109</v>
       </c>
-      <c r="G274" s="6"/>
+      <c r="G274" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H274" s="4"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8429,7 +8539,9 @@
       <c r="F275" s="1">
         <v>109</v>
       </c>
-      <c r="G275" s="6"/>
+      <c r="G275" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H275" s="4"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -8451,7 +8563,9 @@
       <c r="F276" s="1">
         <v>109</v>
       </c>
-      <c r="G276" s="6"/>
+      <c r="G276" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H276" s="4"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -8473,7 +8587,9 @@
       <c r="F277" s="1">
         <v>109</v>
       </c>
-      <c r="G277" s="6"/>
+      <c r="G277" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H277" s="4"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8495,7 +8611,9 @@
       <c r="F278" s="1">
         <v>109</v>
       </c>
-      <c r="G278" s="6"/>
+      <c r="G278" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H278" s="4"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -8517,7 +8635,9 @@
       <c r="F279" s="1">
         <v>109</v>
       </c>
-      <c r="G279" s="6"/>
+      <c r="G279" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H279" s="4"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -8539,7 +8659,9 @@
       <c r="F280" s="1">
         <v>438</v>
       </c>
-      <c r="G280" s="6"/>
+      <c r="G280" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H280" s="4"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -8561,7 +8683,9 @@
       <c r="F281" s="1">
         <v>438</v>
       </c>
-      <c r="G281" s="6"/>
+      <c r="G281" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H281" s="4"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -8583,7 +8707,9 @@
       <c r="F282" s="1">
         <v>109</v>
       </c>
-      <c r="G282" s="6"/>
+      <c r="G282" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H282" s="4"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8605,7 +8731,9 @@
       <c r="F283" s="1">
         <v>109</v>
       </c>
-      <c r="G283" s="6"/>
+      <c r="G283" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H283" s="4"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8627,7 +8755,9 @@
       <c r="F284" s="1">
         <v>109</v>
       </c>
-      <c r="G284" s="6"/>
+      <c r="G284" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H284" s="4"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -8649,7 +8779,9 @@
       <c r="F285" s="1">
         <v>109</v>
       </c>
-      <c r="G285" s="6"/>
+      <c r="G285" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H285" s="4"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -8671,7 +8803,9 @@
       <c r="F286" s="1">
         <v>109</v>
       </c>
-      <c r="G286" s="6"/>
+      <c r="G286" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H286" s="4"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -8693,7 +8827,9 @@
       <c r="F287" s="1">
         <v>109</v>
       </c>
-      <c r="G287" s="6"/>
+      <c r="G287" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H287" s="4"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -8715,7 +8851,9 @@
       <c r="F288" s="1">
         <v>109</v>
       </c>
-      <c r="G288" s="6"/>
+      <c r="G288" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H288" s="4"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,7 +8875,9 @@
       <c r="F289" s="1">
         <v>109</v>
       </c>
-      <c r="G289" s="6"/>
+      <c r="G289" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H289" s="4"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -8759,7 +8899,9 @@
       <c r="F290" s="1">
         <v>410</v>
       </c>
-      <c r="G290" s="6"/>
+      <c r="G290" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H290" s="4"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -8781,7 +8923,9 @@
       <c r="F291" s="1">
         <v>610</v>
       </c>
-      <c r="G291" s="6"/>
+      <c r="G291" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H291" s="4"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -8803,7 +8947,9 @@
       <c r="F292" s="1">
         <v>109</v>
       </c>
-      <c r="G292" s="6"/>
+      <c r="G292" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H292" s="4"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -8825,7 +8971,9 @@
       <c r="F293" s="1">
         <v>109</v>
       </c>
-      <c r="G293" s="6"/>
+      <c r="G293" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H293" s="4"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -8847,7 +8995,9 @@
       <c r="F294" s="1">
         <v>109</v>
       </c>
-      <c r="G294" s="6"/>
+      <c r="G294" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H294" s="4"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -10187,7 +10337,9 @@
       <c r="F350" s="1">
         <v>236</v>
       </c>
-      <c r="G350" s="6"/>
+      <c r="G350" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H350" s="4"/>
     </row>
     <row r="351" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10209,7 +10361,9 @@
       <c r="F351" s="1">
         <v>104</v>
       </c>
-      <c r="G351" s="6"/>
+      <c r="G351" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H351" s="4"/>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -10231,7 +10385,9 @@
       <c r="F352" s="1">
         <v>2119</v>
       </c>
-      <c r="G352" s="6"/>
+      <c r="G352" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H352" s="4"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -10253,7 +10409,9 @@
       <c r="F353" s="1">
         <v>2367</v>
       </c>
-      <c r="G353" s="6"/>
+      <c r="G353" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H353" s="4"/>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -10275,7 +10433,9 @@
       <c r="F354" s="1">
         <v>2766</v>
       </c>
-      <c r="G354" s="6"/>
+      <c r="G354" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H354" s="4"/>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -10297,7 +10457,9 @@
       <c r="F355" s="1">
         <v>2751</v>
       </c>
-      <c r="G355" s="6"/>
+      <c r="G355" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H355" s="4"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -10319,7 +10481,9 @@
       <c r="F356" s="1">
         <v>3550</v>
       </c>
-      <c r="G356" s="6"/>
+      <c r="G356" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H356" s="4"/>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -10341,7 +10505,9 @@
       <c r="F357" s="1">
         <v>3949</v>
       </c>
-      <c r="G357" s="6"/>
+      <c r="G357" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H357" s="4"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -10363,7 +10529,9 @@
       <c r="F358" s="1">
         <v>4347</v>
       </c>
-      <c r="G358" s="6"/>
+      <c r="G358" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H358" s="4"/>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -10385,7 +10553,9 @@
       <c r="F359" s="1">
         <v>1274</v>
       </c>
-      <c r="G359" s="6"/>
+      <c r="G359" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H359" s="4"/>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -10407,7 +10577,9 @@
       <c r="F360" s="1">
         <v>1690</v>
       </c>
-      <c r="G360" s="6"/>
+      <c r="G360" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H360" s="4"/>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -10429,7 +10601,9 @@
       <c r="F361" s="1">
         <v>0</v>
       </c>
-      <c r="G361" s="6"/>
+      <c r="G361" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H361" s="4"/>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -10451,7 +10625,9 @@
       <c r="F362" s="1">
         <v>230.001</v>
       </c>
-      <c r="G362" s="6"/>
+      <c r="G362" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H362" s="4"/>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -10473,7 +10649,9 @@
       <c r="F363" s="1">
         <v>0</v>
       </c>
-      <c r="G363" s="6"/>
+      <c r="G363" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H363" s="4"/>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -10495,7 +10673,9 @@
       <c r="F364" s="1">
         <v>316</v>
       </c>
-      <c r="G364" s="6"/>
+      <c r="G364" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H364" s="4"/>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -10517,7 +10697,9 @@
       <c r="F365" s="1">
         <v>100</v>
       </c>
-      <c r="G365" s="6"/>
+      <c r="G365" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H365" s="4"/>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -10539,7 +10721,9 @@
       <c r="F366" s="1">
         <v>17.25</v>
       </c>
-      <c r="G366" s="6"/>
+      <c r="G366" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H366" s="4"/>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -10561,7 +10745,9 @@
       <c r="F367" s="1">
         <v>1</v>
       </c>
-      <c r="G367" s="6"/>
+      <c r="G367" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H367" s="4"/>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -10583,7 +10769,9 @@
       <c r="F368" s="1">
         <v>862.5</v>
       </c>
-      <c r="G368" s="6"/>
+      <c r="G368" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H368" s="4"/>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -10605,7 +10793,9 @@
       <c r="F369" s="1">
         <v>4990</v>
       </c>
-      <c r="G369" s="6"/>
+      <c r="G369" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="H369" s="4"/>
     </row>
   </sheetData>
